--- a/PACM Worksheets/SWFSC_20240410_METADATA.xlsx
+++ b/PACM Worksheets/SWFSC_20240410_METADATA.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">SUBMISSION_DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202108_ADRIFT_001</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202108_ADRIFT_001</t>
   </si>
   <si>
     <t xml:space="preserve">ADRIFT</t>
@@ -155,7 +155,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202106_ADRIFT_002</t>
+    <t xml:space="preserve">SWFSC_NEPac-HMB_202106_ADRIFT_002</t>
   </si>
   <si>
     <t xml:space="preserve">5296</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">2021-06-16T22:48:53</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202107_ADRIFT_003</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202107_ADRIFT_003</t>
   </si>
   <si>
     <t xml:space="preserve">1208786975</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">2021-08-03T16:32:07</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202106_ADRIFT_005</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202106_ADRIFT_005</t>
   </si>
   <si>
     <t xml:space="preserve">2021-06-10T18:30:41</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">2021-06-22T21:21:24</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202107_ADRIFT_006</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202107_ADRIFT_006</t>
   </si>
   <si>
     <t xml:space="preserve">5318</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">2021-07-28T22:05:59</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202106_ADRIFT_007</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202106_ADRIFT_007</t>
   </si>
   <si>
     <t xml:space="preserve">2021-06-10T17:33:22</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">2021-06-24T10:00:08</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202201_ADRIFT_012</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202201_ADRIFT_012</t>
   </si>
   <si>
     <t xml:space="preserve">5992</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">2022-01-21T19:39:12</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202204_ADRIFT_013</t>
+    <t xml:space="preserve">SWFSC_NEPac-MOB_202204_ADRIFT_013</t>
   </si>
   <si>
     <t xml:space="preserve">6655</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">2022-05-04T20:36:02</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_015</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202206_ADRIFT_015</t>
   </si>
   <si>
     <t xml:space="preserve">6668</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">2022-06-21T06:14:36</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202204_ADRIFT_017</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202204_ADRIFT_017</t>
   </si>
   <si>
     <t xml:space="preserve">2022-04-25T18:59:59</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">2022-04-28T19:22:16</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202204_ADRIFT_018</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202204_ADRIFT_018</t>
   </si>
   <si>
     <t xml:space="preserve">5989</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">2022-04-28T20:22:15</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_019</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_019</t>
   </si>
   <si>
     <t xml:space="preserve">6673</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">2022-06-25T22:14:42</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_020</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_020</t>
   </si>
   <si>
     <t xml:space="preserve">6666</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">2022-06-25T17:52:13</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_021</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_021</t>
   </si>
   <si>
     <t xml:space="preserve">6670</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">2022-06-25T18:37:12</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_022</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_022</t>
   </si>
   <si>
     <t xml:space="preserve">6667</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">2022-06-25T16:52:16</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_023</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_023</t>
   </si>
   <si>
     <t xml:space="preserve">6665</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">2022-06-25T21:29:41</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_024</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_024</t>
   </si>
   <si>
     <t xml:space="preserve">6664</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">2022-06-25T20:14:42</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_025</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_025</t>
   </si>
   <si>
     <t xml:space="preserve">6672</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">2022-06-25T17:29:42</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202206_ADRIFT_026</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202206_ADRIFT_026</t>
   </si>
   <si>
     <t xml:space="preserve">6663</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">2022-06-25T20:44:44</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202207_ADRIFT_027</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202207_ADRIFT_027</t>
   </si>
   <si>
     <t xml:space="preserve">6671</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">2022-07-30T18:14:25</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202207_ADRIFT_028</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202207_ADRIFT_028</t>
   </si>
   <si>
     <t xml:space="preserve">2022-07-26T17:29:47</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">2022-07-30T20:20:32</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202207_ADRIFT_030</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202207_ADRIFT_030</t>
   </si>
   <si>
     <t xml:space="preserve">2022-07-28T18:59:58</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">2022-08-01T11:29:40</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202207_ADRIFT_031</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202207_ADRIFT_031</t>
   </si>
   <si>
     <t xml:space="preserve">5984</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">2022-08-01T08:52:13</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202209_ADRIFT_032</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202209_ADRIFT_032</t>
   </si>
   <si>
     <t xml:space="preserve">2022-09-13T06:59:57</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">2022-09-15T18:14:45</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202209_ADRIFT_033</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202209_ADRIFT_033</t>
   </si>
   <si>
     <t xml:space="preserve">2022-09-13T04:44:57</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">2022-09-15T17:29:45</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202209_ADRIFT_034</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202209_ADRIFT_034</t>
   </si>
   <si>
     <t xml:space="preserve">2022-09-27T18:37:14</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">2022-10-01T15:59:35</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202211_ADRIFT_036</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202211_ADRIFT_036</t>
   </si>
   <si>
     <t xml:space="preserve">2022-11-16T19:14:57</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">2022-11-20T07:37:12</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202211_ADRIFT_037</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202211_ADRIFT_037</t>
   </si>
   <si>
     <t xml:space="preserve">8025</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">2022-11-21T10:59:46</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202211_ADRIFT_038</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202211_ADRIFT_038</t>
   </si>
   <si>
     <t xml:space="preserve">2022-11-20T03:29:42</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202212_ADRIFT_039</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202212_ADRIFT_039</t>
   </si>
   <si>
     <t xml:space="preserve">2022-12-13T21:29:57</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">2022-12-16T20:22:14</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202212_ADRIFT_040</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202212_ADRIFT_040</t>
   </si>
   <si>
     <t xml:space="preserve">2022-12-16T21:29:50</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202212_ADRIFT_041</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202212_ADRIFT_041</t>
   </si>
   <si>
     <t xml:space="preserve">2022-12-13T21:52:27</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">2022-12-16T22:37:14</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_042</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202303_ADRIFT_042</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">2023-03-21T00:44:35</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_043</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202303_ADRIFT_043</t>
   </si>
   <si>
     <t xml:space="preserve">5986</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">2023-03-20T08:53:16</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_044</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202303_ADRIFT_044</t>
   </si>
   <si>
     <t xml:space="preserve">5991</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">2023-03-20T21:11:30</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_045</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202303_ADRIFT_045</t>
   </si>
   <si>
     <t xml:space="preserve">5994</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">2023-03-20T11:40:17</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_046</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_046</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-11T19:00:00</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">2023-03-16T21:30:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_047</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_047</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-11T19:30:00</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">2023-03-16T21:12:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_048</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_048</t>
   </si>
   <si>
     <t xml:space="preserve">7519</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">2023-03-18T18:12:02</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_049</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_049</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-11T20:36:00</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">2023-03-16T17:42:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_050</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_050</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-11T21:00:00</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">2023-03-16T20:00:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_051</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_051</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-11T21:30:00</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">2023-03-16T19:24:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_052</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_052</t>
   </si>
   <si>
     <t xml:space="preserve">7517</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">2023-03-16T22:54:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_053</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202303_ADRIFT_053</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-11T22:18:00</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">2023-03-16T23:30:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_054</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202303_ADRIFT_054</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-16T18:29:58</t>
@@ -632,19 +632,19 @@
     <t xml:space="preserve">2023-03-18T16:59:48</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_055</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202303_ADRIFT_055</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-18T17:29:52</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202303_ADRIFT_057</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202303_ADRIFT_057</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-16T19:14:57</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_058</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_058</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-13T07:49:55</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">2023-04-16T17:09:47</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_059</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_059</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-13T06:15:13</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">2023-04-16T18:18:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_060</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_060</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-13T06:58:23</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">2023-04-16T18:13:06</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_061</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_061</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-13T05:14:02</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">2023-04-16T18:56:46</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_062</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_062</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-26T03:37:21</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">2023-04-29T05:28:54</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_063</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_063</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-26T03:03:34</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">2023-04-29T03:44:57</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_064</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_064</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-26T02:06:08</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">2023-04-29T07:20:35</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202304_ADRIFT_065</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202304_ADRIFT_065</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-26T02:59:55</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2023-04-29T06:47:59</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_067</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202305_ADRIFT_067</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-08T04:18:02</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">2023-05-12T01:36:03</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_068</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202305_ADRIFT_068</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-07T00:29:58</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">2023-05-09T16:14:48</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_070</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202305_ADRIFT_070</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-07T00:52:27</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">2023-05-09T17:44:46</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_071</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202305_ADRIFT_071</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-07T00:59:58</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2023-05-09T17:59:48</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_072</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202305_ADRIFT_072</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-17T18:13:55</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">2023-05-23T13:36:53</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_073</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202305_ADRIFT_073</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-17T18:38:29</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2023-05-21T06:28:32</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_074</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202305_ADRIFT_074</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-17T18:58:58</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">2023-05-21T20:30:14</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202305_ADRIFT_075</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202305_ADRIFT_075</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-17T19:25:22</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">2023-05-21T09:00:04</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_077</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202307_ADRIFT_077</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-17T19:08:24</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">2023-07-21T08:34:54</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_078</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202307_ADRIFT_078</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-17T20:03:06</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">2023-07-21T11:22:38</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_079</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202307_ADRIFT_079</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-11T19:54:00</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">2023-07-16T16:24:02</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_080</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202307_ADRIFT_080</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-11T20:42:00</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">2023-07-16T20:12:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_081</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202307_ADRIFT_081</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-11T21:18:00</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">2023-07-16T17:42:02</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_082</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202307_ADRIFT_082</t>
   </si>
   <si>
     <t xml:space="preserve">7521</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">2023-07-15T18:42:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202307_ADRIFT_083</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202307_ADRIFT_083</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-11T22:44:00</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">2023-07-16T17:18:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_085</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202308_ADRIFT_085</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-04T22:05:52</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2023-08-11T02:37:32</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_086</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202308_ADRIFT_086</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-04T22:41:22</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">2023-08-08T10:11:55</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_087</t>
+    <t xml:space="preserve">SWFSC_NEPac-ORE_202308_ADRIFT_087</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-04T23:14:28</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">2023-08-08T11:44:44</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_088</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202308_ADRIFT_088</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-25T17:29:58</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">2023-08-28T20:23:59</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_089</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202308_ADRIFT_089</t>
   </si>
   <si>
     <t xml:space="preserve">5990</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">2023-08-26T18:23:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_090</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202308_ADRIFT_090</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-25T17:41:58</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">2023-08-26T21:11:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202308_ADRIFT_091</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202308_ADRIFT_091</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-25T18:05:58</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">2023-08-28T21:29:59</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202309_ADRIFT_092</t>
+    <t xml:space="preserve">SWFSC_NEPac-SFB_202309_ADRIFT_092</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-17T17:42:00</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">2023-09-22T01:42:02</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202310_ADRIFT_097</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202310_ADRIFT_097</t>
   </si>
   <si>
     <t xml:space="preserve">2023-10-05T23:29:58</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">2023-10-06T23:23:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202310_ADRIFT_098</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202310_ADRIFT_098</t>
   </si>
   <si>
     <t xml:space="preserve">2023-10-06T23:41:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202310_ADRIFT_099</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202310_ADRIFT_099</t>
   </si>
   <si>
     <t xml:space="preserve">2023-10-05T23:41:58</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">2023-10-06T23:53:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202310_ADRIFT_100</t>
+    <t xml:space="preserve">SWFSC_NEPac-HUM_202310_ADRIFT_100</t>
   </si>
   <si>
     <t xml:space="preserve">2023-10-05T23:53:58</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">2023-10-07T00:23:58</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_101</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_101</t>
   </si>
   <si>
     <t xml:space="preserve">7932</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2023-11-10T18:18:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_102</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_102</t>
   </si>
   <si>
     <t xml:space="preserve">2023-11-06T17:42:00</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">2023-11-10T19:48:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_103</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_103</t>
   </si>
   <si>
     <t xml:space="preserve">7939</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2023-11-10T20:54:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_104</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_104</t>
   </si>
   <si>
     <t xml:space="preserve">7930</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">2023-11-10T22:48:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_105</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_105</t>
   </si>
   <si>
     <t xml:space="preserve">7951</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">2023-11-10T22:00:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_106</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_106</t>
   </si>
   <si>
     <t xml:space="preserve">2023-11-06T20:36:00</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">2023-11-10T22:18:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_107</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_107</t>
   </si>
   <si>
     <t xml:space="preserve">7934</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2023-11-10T20:24:01</t>
   </si>
   <si>
-    <t xml:space="preserve">SWFSC_Region_202311_ADRIFT_108</t>
+    <t xml:space="preserve">SWFSC_NEPac-MBY_202311_ADRIFT_108</t>
   </si>
   <si>
     <t xml:space="preserve">2023-11-06T21:41:59</t>
